--- a/Bakery_Sales_EDA_Dataset.xlsx
+++ b/Bakery_Sales_EDA_Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akinremi.Eriiseoluwa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824C0455-CDDC-4267-8608-BFFC56042F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF4DF5-988C-4D92-BDD1-FA1EC5D4C46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId5"/>
-    <pivotCache cacheId="27" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="22" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -180,6 +180,9 @@
   <si>
     <t>Features  pivots</t>
   </si>
+  <si>
+    <t>Count of Customer Type</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;₦&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +215,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +263,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -339,7 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -353,24 +368,56 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -404,28 +451,14 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="6" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="6" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
@@ -454,62 +487,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor theme="6" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
@@ -838,6 +815,490 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Bakery_Sales_EDA_Dataset.xlsx]Sheet5!PivotTable13</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NG"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NG"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NG"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NG"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-68E6-42B9-8CFB-06A6672DB719}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-68E6-42B9-8CFB-06A6672DB719}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$G$13:$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>New</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Returning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$H$13:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-68E6-42B9-8CFB-06A6672DB719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NG"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NG"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -4968,6 +5429,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5759,6 +6260,525 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10191,6 +11211,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41FAB29-6E28-4F2B-9852-D1A31094E919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10291,7 +11349,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Customer Type" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="New"/>
+        <s v="Returning"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Total" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="25" maxValue="150"/>
@@ -11152,7 +12213,7 @@
     <n v="20"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="50"/>
     <x v="0"/>
     <x v="0"/>
@@ -11164,7 +12225,7 @@
     <n v="10"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="50"/>
     <x v="1"/>
     <x v="1"/>
@@ -11176,7 +12237,7 @@
     <n v="15"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="45"/>
     <x v="2"/>
     <x v="1"/>
@@ -11188,7 +12249,7 @@
     <n v="25"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="62.5"/>
     <x v="3"/>
     <x v="0"/>
@@ -11200,7 +12261,7 @@
     <n v="12"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="60"/>
     <x v="4"/>
     <x v="1"/>
@@ -11212,7 +12273,7 @@
     <n v="18"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="54"/>
     <x v="5"/>
     <x v="1"/>
@@ -11224,7 +12285,7 @@
     <n v="30"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="75"/>
     <x v="6"/>
     <x v="0"/>
@@ -11236,7 +12297,7 @@
     <n v="14"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="70"/>
     <x v="0"/>
     <x v="1"/>
@@ -11248,7 +12309,7 @@
     <n v="20"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="60"/>
     <x v="1"/>
     <x v="1"/>
@@ -11260,7 +12321,7 @@
     <n v="22"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="55"/>
     <x v="2"/>
     <x v="0"/>
@@ -11272,7 +12333,7 @@
     <n v="20"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="100"/>
     <x v="3"/>
     <x v="1"/>
@@ -11284,7 +12345,7 @@
     <n v="10"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="30"/>
     <x v="4"/>
     <x v="1"/>
@@ -11296,7 +12357,7 @@
     <n v="15"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="37.5"/>
     <x v="5"/>
     <x v="0"/>
@@ -11308,7 +12369,7 @@
     <n v="25"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="125"/>
     <x v="6"/>
     <x v="1"/>
@@ -11320,7 +12381,7 @@
     <n v="12"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="36"/>
     <x v="0"/>
     <x v="1"/>
@@ -11332,7 +12393,7 @@
     <n v="18"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="45"/>
     <x v="1"/>
     <x v="0"/>
@@ -11344,7 +12405,7 @@
     <n v="30"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="150"/>
     <x v="2"/>
     <x v="1"/>
@@ -11356,7 +12417,7 @@
     <n v="14"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="42"/>
     <x v="3"/>
     <x v="1"/>
@@ -11368,7 +12429,7 @@
     <n v="20"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="50"/>
     <x v="4"/>
     <x v="0"/>
@@ -11380,7 +12441,7 @@
     <n v="22"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="110"/>
     <x v="5"/>
     <x v="1"/>
@@ -11392,7 +12453,7 @@
     <n v="20"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="60"/>
     <x v="6"/>
     <x v="1"/>
@@ -11404,7 +12465,7 @@
     <n v="10"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="25"/>
     <x v="0"/>
     <x v="0"/>
@@ -11416,7 +12477,7 @@
     <n v="15"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="75"/>
     <x v="1"/>
     <x v="1"/>
@@ -11428,7 +12489,7 @@
     <n v="25"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="75"/>
     <x v="2"/>
     <x v="1"/>
@@ -11440,7 +12501,7 @@
     <n v="12"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="30"/>
     <x v="3"/>
     <x v="0"/>
@@ -11452,7 +12513,7 @@
     <n v="18"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="90"/>
     <x v="4"/>
     <x v="1"/>
@@ -11464,7 +12525,7 @@
     <n v="30"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="90"/>
     <x v="5"/>
     <x v="1"/>
@@ -11476,7 +12537,7 @@
     <n v="14"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="35"/>
     <x v="6"/>
     <x v="0"/>
@@ -11488,7 +12549,7 @@
     <n v="20"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="100"/>
     <x v="0"/>
     <x v="1"/>
@@ -11500,7 +12561,7 @@
     <n v="22"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="66"/>
     <x v="1"/>
     <x v="1"/>
@@ -11512,7 +12573,7 @@
     <n v="20"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="50"/>
     <x v="0"/>
     <x v="0"/>
@@ -11524,7 +12585,7 @@
     <n v="10"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="50"/>
     <x v="1"/>
     <x v="1"/>
@@ -11536,7 +12597,7 @@
     <n v="15"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="45"/>
     <x v="2"/>
     <x v="1"/>
@@ -11548,7 +12609,7 @@
     <n v="25"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="62.5"/>
     <x v="3"/>
     <x v="0"/>
@@ -11560,7 +12621,7 @@
     <n v="12"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="60"/>
     <x v="4"/>
     <x v="1"/>
@@ -11572,7 +12633,7 @@
     <n v="18"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="54"/>
     <x v="5"/>
     <x v="1"/>
@@ -11584,7 +12645,7 @@
     <n v="30"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="75"/>
     <x v="6"/>
     <x v="0"/>
@@ -11596,7 +12657,7 @@
     <n v="14"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="70"/>
     <x v="0"/>
     <x v="1"/>
@@ -11608,7 +12669,7 @@
     <n v="20"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="60"/>
     <x v="1"/>
     <x v="1"/>
@@ -11620,7 +12681,7 @@
     <n v="22"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="55"/>
     <x v="2"/>
     <x v="0"/>
@@ -11632,7 +12693,7 @@
     <n v="20"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="100"/>
     <x v="3"/>
     <x v="1"/>
@@ -11644,7 +12705,7 @@
     <n v="10"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="30"/>
     <x v="4"/>
     <x v="1"/>
@@ -11656,7 +12717,7 @@
     <n v="15"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="37.5"/>
     <x v="5"/>
     <x v="0"/>
@@ -11668,7 +12729,7 @@
     <n v="25"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="125"/>
     <x v="6"/>
     <x v="1"/>
@@ -11680,7 +12741,7 @@
     <n v="12"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="36"/>
     <x v="0"/>
     <x v="1"/>
@@ -11692,7 +12753,7 @@
     <n v="18"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="45"/>
     <x v="1"/>
     <x v="0"/>
@@ -11704,7 +12765,7 @@
     <n v="30"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="150"/>
     <x v="2"/>
     <x v="1"/>
@@ -11716,7 +12777,7 @@
     <n v="14"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="42"/>
     <x v="3"/>
     <x v="1"/>
@@ -11728,7 +12789,7 @@
     <n v="20"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="50"/>
     <x v="4"/>
     <x v="0"/>
@@ -11740,7 +12801,7 @@
     <n v="22"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="110"/>
     <x v="5"/>
     <x v="1"/>
@@ -11752,7 +12813,7 @@
     <n v="20"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="60"/>
     <x v="6"/>
     <x v="1"/>
@@ -11764,7 +12825,7 @@
     <n v="10"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="25"/>
     <x v="0"/>
     <x v="0"/>
@@ -11776,7 +12837,7 @@
     <n v="15"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="75"/>
     <x v="1"/>
     <x v="1"/>
@@ -11788,7 +12849,7 @@
     <n v="25"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="75"/>
     <x v="2"/>
     <x v="1"/>
@@ -11800,7 +12861,7 @@
     <n v="12"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="30"/>
     <x v="3"/>
     <x v="0"/>
@@ -11812,7 +12873,7 @@
     <n v="18"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="90"/>
     <x v="4"/>
     <x v="1"/>
@@ -11824,7 +12885,7 @@
     <n v="30"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="90"/>
     <x v="5"/>
     <x v="1"/>
@@ -11836,7 +12897,7 @@
     <n v="14"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="35"/>
     <x v="6"/>
     <x v="0"/>
@@ -11848,7 +12909,7 @@
     <n v="20"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="100"/>
     <x v="0"/>
     <x v="1"/>
@@ -11860,7 +12921,7 @@
     <n v="22"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="66"/>
     <x v="1"/>
     <x v="1"/>
@@ -11872,7 +12933,7 @@
     <n v="20"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="50"/>
     <x v="0"/>
     <x v="0"/>
@@ -11884,7 +12945,7 @@
     <n v="10"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="50"/>
     <x v="1"/>
     <x v="1"/>
@@ -11896,7 +12957,7 @@
     <n v="15"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="45"/>
     <x v="2"/>
     <x v="1"/>
@@ -11908,7 +12969,7 @@
     <n v="25"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="62.5"/>
     <x v="3"/>
     <x v="0"/>
@@ -11920,7 +12981,7 @@
     <n v="12"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="60"/>
     <x v="4"/>
     <x v="1"/>
@@ -11932,7 +12993,7 @@
     <n v="18"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="54"/>
     <x v="5"/>
     <x v="1"/>
@@ -11944,7 +13005,7 @@
     <n v="30"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="75"/>
     <x v="6"/>
     <x v="0"/>
@@ -11956,7 +13017,7 @@
     <n v="14"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="70"/>
     <x v="0"/>
     <x v="1"/>
@@ -11968,7 +13029,7 @@
     <n v="20"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="60"/>
     <x v="1"/>
     <x v="1"/>
@@ -11980,7 +13041,7 @@
     <n v="22"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="55"/>
     <x v="2"/>
     <x v="0"/>
@@ -11992,7 +13053,7 @@
     <n v="20"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="100"/>
     <x v="3"/>
     <x v="1"/>
@@ -12004,7 +13065,7 @@
     <n v="10"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="30"/>
     <x v="4"/>
     <x v="1"/>
@@ -12016,7 +13077,7 @@
     <n v="15"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="37.5"/>
     <x v="5"/>
     <x v="0"/>
@@ -12028,7 +13089,7 @@
     <n v="25"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="125"/>
     <x v="6"/>
     <x v="1"/>
@@ -12040,7 +13101,7 @@
     <n v="12"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="36"/>
     <x v="0"/>
     <x v="1"/>
@@ -12052,7 +13113,7 @@
     <n v="18"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="45"/>
     <x v="1"/>
     <x v="0"/>
@@ -12064,7 +13125,7 @@
     <n v="30"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="150"/>
     <x v="2"/>
     <x v="1"/>
@@ -12076,7 +13137,7 @@
     <n v="14"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="42"/>
     <x v="3"/>
     <x v="1"/>
@@ -12088,7 +13149,7 @@
     <n v="20"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="50"/>
     <x v="4"/>
     <x v="0"/>
@@ -12100,7 +13161,7 @@
     <n v="22"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="110"/>
     <x v="5"/>
     <x v="1"/>
@@ -12112,7 +13173,7 @@
     <n v="20"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="60"/>
     <x v="6"/>
     <x v="1"/>
@@ -12124,7 +13185,7 @@
     <n v="10"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="25"/>
     <x v="0"/>
     <x v="0"/>
@@ -12136,7 +13197,7 @@
     <n v="15"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="75"/>
     <x v="1"/>
     <x v="1"/>
@@ -12148,7 +13209,7 @@
     <n v="25"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="75"/>
     <x v="2"/>
     <x v="1"/>
@@ -12160,7 +13221,7 @@
     <n v="12"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="30"/>
     <x v="3"/>
     <x v="0"/>
@@ -12172,7 +13233,7 @@
     <n v="18"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="90"/>
     <x v="4"/>
     <x v="1"/>
@@ -12184,7 +13245,7 @@
     <n v="30"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="90"/>
     <x v="5"/>
     <x v="1"/>
@@ -12196,7 +13257,7 @@
     <n v="14"/>
     <n v="2.5"/>
     <s v="Cash"/>
-    <s v="New"/>
+    <x v="0"/>
     <n v="35"/>
     <x v="6"/>
     <x v="0"/>
@@ -12208,7 +13269,7 @@
     <n v="20"/>
     <n v="5"/>
     <s v="Card"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="100"/>
     <x v="0"/>
     <x v="1"/>
@@ -12220,7 +13281,7 @@
     <n v="22"/>
     <n v="3"/>
     <s v="Transfer"/>
-    <s v="Returning"/>
+    <x v="1"/>
     <n v="66"/>
     <x v="1"/>
     <x v="1"/>
@@ -12230,67 +13291,34 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{326B2DD0-7CD3-4925-8483-54522FD01670}" name="PivotTable11" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="J3:K14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4F193FE-D6D9-4992-B5F9-EE41B0B796ED}" name="PivotTable13" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="G12:H15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="9"/>
-    <field x="1"/>
+  <rowFields count="1">
+    <field x="5"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
       <x v="1"/>
     </i>
     <i t="grand">
@@ -12301,18 +13329,24 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Quantity" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Count of Customer Type" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="18">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+  <formats count="4">
+    <format dxfId="5">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="4">
-    <chartFormat chart="2" format="0" series="1">
+    <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12321,7 +13355,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
+    <chartFormat chart="4" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12330,20 +13364,26 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="8" format="4" series="1">
+    <chartFormat chart="4" format="5">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="11" format="6" series="1">
+    <chartFormat chart="4" format="6">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -12362,123 +13402,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39788E21-87D0-47C5-9FEF-DB316CA0014D}" name="PivotTable10" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="G3:H9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="8"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Quantity" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="15">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A26BDE7-C3BD-489D-95B0-F8B1CC7D2986}" name="PivotTable9" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A26BDE7-C3BD-489D-95B0-F8B1CC7D2986}" name="PivotTable9" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="D3:E32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
@@ -12610,10 +13534,10 @@
     <dataField name="Sum of Total" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="12">
+    <format dxfId="7">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12649,8 +13573,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B58910E6-EB91-43A9-8786-336A44737A15}" name="PivotTable8" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B58910E6-EB91-43A9-8786-336A44737A15}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -12898,19 +13822,267 @@
     <dataField name="Count of Product" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="21">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="9">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{326B2DD0-7CD3-4925-8483-54522FD01670}" name="PivotTable11" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="J3:K14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="9"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Quantity" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="13">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39788E21-87D0-47C5-9FEF-DB316CA0014D}" name="PivotTable10" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="G3:H9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="8"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Quantity" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="15">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -13246,7 +14418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13283,13 +14457,13 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -16544,7 +17718,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" activeCellId="12" sqref="A1:D1 A9 A10 A11 B9 B10 B11 C9 C10 C11 D9 D10 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16587,7 +17761,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="6">
-        <f>SUM(B2:D2)</f>
+        <f t="shared" ref="E2:E8" si="0">SUM(B2:D2)</f>
         <v>90</v>
       </c>
       <c r="J2" s="2"/>
@@ -16611,7 +17785,7 @@
         <v>1674</v>
       </c>
       <c r="E3" s="2">
-        <f>SUM(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>5859</v>
       </c>
     </row>
@@ -16632,7 +17806,7 @@
         <v>558</v>
       </c>
       <c r="E4" s="6">
-        <f>SUM(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>1674</v>
       </c>
     </row>
@@ -16653,7 +17827,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <f>SUM(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -16674,7 +17848,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="6">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -16695,7 +17869,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
     </row>
@@ -16716,7 +17890,7 @@
         <v>55.8</v>
       </c>
       <c r="E8" s="2">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>195.3</v>
       </c>
     </row>
@@ -16737,7 +17911,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E11" si="0">SUM(B9:D9)</f>
+        <f t="shared" ref="E9:E11" si="1">SUM(B9:D9)</f>
         <v>30</v>
       </c>
     </row>
@@ -16758,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -16779,7 +17953,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -16792,8 +17966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C024D25C-B45A-49DB-9233-4BDED65E87FC}">
   <dimension ref="A2:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16803,7 +17977,7 @@
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -16813,29 +17987,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -16843,25 +18017,25 @@
       <c r="A4" s="4">
         <v>45717</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4">
         <v>975</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4">
         <v>558</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4">
         <v>1164</v>
       </c>
     </row>
@@ -16869,25 +18043,25 @@
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5">
         <v>165</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5">
         <v>558</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5">
         <v>231</v>
       </c>
     </row>
@@ -16895,25 +18069,25 @@
       <c r="A6" s="4">
         <v>45718</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6">
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6">
         <v>450</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6">
         <v>1116</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6">
         <v>528</v>
       </c>
     </row>
@@ -16921,25 +18095,25 @@
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7">
         <v>360</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7">
         <v>558</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7">
         <v>405</v>
       </c>
     </row>
@@ -16947,25 +18121,25 @@
       <c r="A8" s="4">
         <v>45719</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8">
         <v>703.5</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8">
         <v>558</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8">
         <v>360</v>
       </c>
     </row>
@@ -16973,25 +18147,25 @@
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9">
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9">
         <v>277.5</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9">
         <v>1674</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9">
         <v>207</v>
       </c>
     </row>
@@ -16999,19 +18173,19 @@
       <c r="A10" s="4">
         <v>45720</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10">
         <v>300</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10">
         <v>153</v>
       </c>
     </row>
@@ -17019,19 +18193,19 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11">
         <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11">
         <v>126</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11">
         <v>150</v>
       </c>
     </row>
@@ -17039,19 +18213,25 @@
       <c r="A12" s="4">
         <v>45721</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12">
         <v>690</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12">
         <v>120</v>
       </c>
     </row>
@@ -17059,19 +18239,25 @@
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13">
         <v>3</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13">
         <v>150</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="18">
+        <v>30</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13">
         <v>30</v>
       </c>
     </row>
@@ -17079,19 +18265,25 @@
       <c r="A14" s="4">
         <v>45722</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14">
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14">
         <v>450</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="G14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="18">
+        <v>60</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14">
         <v>1674</v>
       </c>
     </row>
@@ -17099,13 +18291,19 @@
       <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15">
         <v>3</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15">
+        <v>90</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="18">
         <v>90</v>
       </c>
     </row>
@@ -17113,13 +18311,13 @@
       <c r="A16" s="4">
         <v>45723</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16">
         <v>874.5</v>
       </c>
     </row>
@@ -17127,13 +18325,13 @@
       <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17">
         <v>3</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17">
         <v>112.5</v>
       </c>
     </row>
@@ -17141,13 +18339,13 @@
       <c r="A18" s="4">
         <v>45724</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18">
         <v>3</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18">
         <v>330</v>
       </c>
     </row>
@@ -17155,13 +18353,13 @@
       <c r="A19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19">
         <v>3</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19">
         <v>432</v>
       </c>
     </row>
@@ -17169,13 +18367,13 @@
       <c r="A20" s="4">
         <v>45725</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20">
         <v>885</v>
       </c>
     </row>
@@ -17183,13 +18381,13 @@
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21">
         <v>3</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21">
         <v>330</v>
       </c>
     </row>
@@ -17197,13 +18395,13 @@
       <c r="A22" s="4">
         <v>45726</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22">
         <v>375</v>
       </c>
     </row>
@@ -17211,13 +18409,13 @@
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23">
         <v>3</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23">
         <v>180</v>
       </c>
     </row>
@@ -17225,13 +18423,13 @@
       <c r="A24" s="4">
         <v>45727</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24">
         <v>843</v>
       </c>
     </row>
@@ -17239,13 +18437,13 @@
       <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25">
         <v>3</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25">
         <v>225</v>
       </c>
     </row>
@@ -17253,13 +18451,13 @@
       <c r="A26" s="4">
         <v>45728</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26">
         <v>3</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26">
         <v>510</v>
       </c>
     </row>
@@ -17267,13 +18465,13 @@
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27">
         <v>3</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27">
         <v>108</v>
       </c>
     </row>
@@ -17281,13 +18479,13 @@
       <c r="A28" s="4">
         <v>45729</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28">
         <v>888</v>
       </c>
     </row>
@@ -17295,13 +18493,13 @@
       <c r="A29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29">
         <v>3</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29">
         <v>135</v>
       </c>
     </row>
@@ -17309,13 +18507,13 @@
       <c r="A30" s="4">
         <v>45730</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30">
         <v>3</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30">
         <v>375</v>
       </c>
     </row>
@@ -17323,13 +18521,13 @@
       <c r="A31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31">
         <v>3</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31">
         <v>378</v>
       </c>
     </row>
@@ -17337,13 +18535,13 @@
       <c r="A32" s="4">
         <v>45731</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32">
         <v>3</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32">
         <v>5859</v>
       </c>
     </row>
@@ -17351,7 +18549,7 @@
       <c r="A33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33">
         <v>3</v>
       </c>
     </row>
@@ -17359,7 +18557,7 @@
       <c r="A34" s="4">
         <v>45732</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34">
         <v>3</v>
       </c>
     </row>
@@ -17367,7 +18565,7 @@
       <c r="A35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35">
         <v>3</v>
       </c>
     </row>
@@ -17375,7 +18573,7 @@
       <c r="A36" s="4">
         <v>45733</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36">
         <v>3</v>
       </c>
     </row>
@@ -17383,7 +18581,7 @@
       <c r="A37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37">
         <v>3</v>
       </c>
     </row>
@@ -17391,7 +18589,7 @@
       <c r="A38" s="4">
         <v>45734</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38">
         <v>3</v>
       </c>
     </row>
@@ -17399,7 +18597,7 @@
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39">
         <v>3</v>
       </c>
     </row>
@@ -17407,7 +18605,7 @@
       <c r="A40" s="4">
         <v>45735</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40">
         <v>3</v>
       </c>
     </row>
@@ -17415,7 +18613,7 @@
       <c r="A41" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41">
         <v>3</v>
       </c>
     </row>
@@ -17423,7 +18621,7 @@
       <c r="A42" s="4">
         <v>45736</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42">
         <v>3</v>
       </c>
     </row>
@@ -17431,7 +18629,7 @@
       <c r="A43" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43">
         <v>3</v>
       </c>
     </row>
@@ -17439,7 +18637,7 @@
       <c r="A44" s="4">
         <v>45737</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44">
         <v>3</v>
       </c>
     </row>
@@ -17447,7 +18645,7 @@
       <c r="A45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45">
         <v>3</v>
       </c>
     </row>
@@ -17455,7 +18653,7 @@
       <c r="A46" s="4">
         <v>45738</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46">
         <v>3</v>
       </c>
     </row>
@@ -17463,7 +18661,7 @@
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47">
         <v>3</v>
       </c>
     </row>
@@ -17471,7 +18669,7 @@
       <c r="A48" s="4">
         <v>45739</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48">
         <v>3</v>
       </c>
     </row>
@@ -17479,7 +18677,7 @@
       <c r="A49" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49">
         <v>3</v>
       </c>
     </row>
@@ -17487,7 +18685,7 @@
       <c r="A50" s="4">
         <v>45740</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50">
         <v>3</v>
       </c>
     </row>
@@ -17495,7 +18693,7 @@
       <c r="A51" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51">
         <v>3</v>
       </c>
     </row>
@@ -17503,7 +18701,7 @@
       <c r="A52" s="4">
         <v>45741</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52">
         <v>3</v>
       </c>
     </row>
@@ -17511,7 +18709,7 @@
       <c r="A53" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53">
         <v>3</v>
       </c>
     </row>
@@ -17519,7 +18717,7 @@
       <c r="A54" s="4">
         <v>45742</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54">
         <v>3</v>
       </c>
     </row>
@@ -17527,7 +18725,7 @@
       <c r="A55" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55">
         <v>3</v>
       </c>
     </row>
@@ -17535,7 +18733,7 @@
       <c r="A56" s="4">
         <v>45743</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56">
         <v>3</v>
       </c>
     </row>
@@ -17543,7 +18741,7 @@
       <c r="A57" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57">
         <v>3</v>
       </c>
     </row>
@@ -17551,7 +18749,7 @@
       <c r="A58" s="4">
         <v>45744</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58">
         <v>3</v>
       </c>
     </row>
@@ -17559,7 +18757,7 @@
       <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59">
         <v>3</v>
       </c>
     </row>
@@ -17567,7 +18765,7 @@
       <c r="A60" s="4">
         <v>45745</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60">
         <v>3</v>
       </c>
     </row>
@@ -17575,7 +18773,7 @@
       <c r="A61" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61">
         <v>3</v>
       </c>
     </row>
@@ -17583,7 +18781,7 @@
       <c r="A62" s="4">
         <v>45746</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62">
         <v>3</v>
       </c>
     </row>
@@ -17591,7 +18789,7 @@
       <c r="A63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63">
         <v>3</v>
       </c>
     </row>
@@ -17599,7 +18797,7 @@
       <c r="A64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64">
         <v>90</v>
       </c>
     </row>
@@ -17610,15 +18808,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AAA4EE-256D-46C6-B926-436C7ADDF302}">
-  <dimension ref="J1:J55"/>
+  <dimension ref="H1:J55"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="8:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="8:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="17"/>
+    </row>
+    <row r="7" spans="8:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="17"/>
+    </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
         <v>45</v>
